--- a/04-summary/SEM_Results.xlsx
+++ b/04-summary/SEM_Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
   <si>
     <t>Segment</t>
   </si>
@@ -47,13 +47,13 @@
     <t>Hypothesis 2: Explainability and Fairness Influence User Trust and AI Adoption</t>
   </si>
   <si>
-    <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Trust</t>
+    <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Use</t>
   </si>
   <si>
     <t>Hypothesis 4: AI-Driven Personalization Enhances User Experience</t>
   </si>
   <si>
-    <t>Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust and Usage</t>
+    <t xml:space="preserve">Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust </t>
   </si>
   <si>
     <t>Rejected</t>
@@ -83,6 +83,9 @@
     <t>VAR26_FAIRNESS_Should_Reduce_Bias</t>
   </si>
   <si>
+    <t>VAR17_ETHICS_AI_proritize_Human_Wellbeing</t>
+  </si>
+  <si>
     <t>Trust</t>
   </si>
   <si>
@@ -92,7 +95,10 @@
     <t>VAR29_PERONAL_Improves_CS_quality</t>
   </si>
   <si>
-    <t>VAR05_CG_AI_Training_Supported</t>
+    <t>VAR21_EXPLAIN_clear_descisions</t>
+  </si>
+  <si>
+    <t>VAR06_ED_AI_Training_needed</t>
   </si>
   <si>
     <t>VAR03_CG_AI_Training_Access</t>
@@ -104,6 +110,12 @@
     <t>VAR04_CG_AI_Training_helps_skills</t>
   </si>
   <si>
+    <t>VAR18_GOV_Strict_AI_rules_Usage</t>
+  </si>
+  <si>
+    <t>VAR19_ACCOUNTABILITY_AI_Mechanisms</t>
+  </si>
+  <si>
     <t>Yvar_USE_AI_Work</t>
   </si>
   <si>
@@ -113,6 +125,9 @@
     <t>Training</t>
   </si>
   <si>
+    <t>ethics</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
@@ -120,9 +135,6 @@
   </si>
   <si>
     <t>VAR15_SAFETY_AI_protect_Cyber_Threats</t>
-  </si>
-  <si>
-    <t>VAR17_ETHICS_AI_proritize_Human_Wellbeing</t>
   </si>
   <si>
     <t>-</t>
@@ -520,16 +532,16 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.5398937241890975</v>
+        <v>0.338363975617207</v>
       </c>
       <c r="D2">
-        <v>0.5182011306954178</v>
+        <v>0.5106155978336923</v>
       </c>
       <c r="E2">
-        <v>0.8453888372242169</v>
+        <v>0.5333341276366211</v>
       </c>
       <c r="F2">
-        <v>0.6129737085200782</v>
+        <v>0.9574028200584884</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -543,16 +555,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0002552583517574369</v>
+        <v>0.0001683002270489453</v>
       </c>
       <c r="D3">
         <v>0.2133405399520164</v>
       </c>
       <c r="E3">
-        <v>0.05833876832830608</v>
+        <v>0.05670352712654606</v>
       </c>
       <c r="F3">
-        <v>3.656925678440252</v>
+        <v>3.762385706133216</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -566,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.964303032432041</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2743869019740707</v>
       </c>
       <c r="E4">
-        <v>0.02877469602024851</v>
+        <v>6.130941232370816</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.04475444985923008</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -589,16 +601,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.5812399213543369</v>
+        <v>0.566642680924152</v>
       </c>
       <c r="D5">
         <v>0.4864869968026983</v>
       </c>
       <c r="E5">
-        <v>0.8819969192963366</v>
+        <v>0.8490130411694811</v>
       </c>
       <c r="F5">
-        <v>0.5515744853057645</v>
+        <v>0.5730029731133567</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -618,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4249895709594576</v>
+        <v>0.3265465521742955</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -634,7 +646,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,22 +683,22 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -697,16 +709,16 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.002694999236462428</v>
+        <v>0.002695104188202803</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -723,16 +735,16 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.002078436039377361</v>
+        <v>0.002078516980209031</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -749,16 +761,16 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.00317742044813943</v>
+        <v>0.003177544186877961</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -775,22 +787,22 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.4249895709594576</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -798,19 +810,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03511496058907433</v>
+        <v>0.3265465521742955</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -824,19 +836,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.02944018459492923</v>
+        <v>0.03511632807600208</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -850,19 +862,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02877469602024851</v>
+        <v>0.02415479218439201</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -876,19 +888,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01318901357240085</v>
+        <v>0.03280499847424097</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -902,19 +914,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.03223920932216869</v>
+        <v>0.01316787571097853</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -928,19 +940,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.03706045986429757</v>
+        <v>0.03224046481830394</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -957,22 +969,22 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.03706190311508159</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -983,22 +995,22 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>0.6743473225749597</v>
-      </c>
-      <c r="F14">
-        <v>1.311659528498691</v>
-      </c>
-      <c r="G14">
-        <v>0.5141176562383493</v>
-      </c>
-      <c r="H14">
-        <v>0.6071697337446449</v>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1009,22 +1021,22 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
+        <v>0.6743473225749597</v>
+      </c>
+      <c r="F15">
+        <v>1.246817417212664</v>
+      </c>
+      <c r="G15">
+        <v>0.5408549104823728</v>
+      </c>
+      <c r="H15">
+        <v>0.5886075915239781</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1035,22 +1047,22 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.281718679465887</v>
+        <v>0.09475466377986455</v>
       </c>
       <c r="F16">
-        <v>0.4770065856654001</v>
+        <v>0.2918758563297366</v>
       </c>
       <c r="G16">
-        <v>0.5905970440058247</v>
+        <v>0.3246402938943129</v>
       </c>
       <c r="H16">
-        <v>0.5547904459590352</v>
+        <v>0.7454533274493298</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1061,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>0.4196536135429234</v>
-      </c>
-      <c r="F17">
-        <v>0.6954262573952387</v>
-      </c>
-      <c r="G17">
-        <v>0.6034480422326273</v>
-      </c>
-      <c r="H17">
-        <v>0.5462106704240755</v>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1087,22 +1099,22 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>0.3285717890652088</v>
+        <v>0.5832777812053725</v>
       </c>
       <c r="F18">
-        <v>0.5357895086930416</v>
+        <v>0.5260145933255318</v>
       </c>
       <c r="G18">
-        <v>0.6132478962980912</v>
+        <v>1.108862355921927</v>
       </c>
       <c r="H18">
-        <v>0.5397124393646315</v>
+        <v>0.2674895654407505</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1113,22 +1125,22 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>0.2133405399520164</v>
+        <v>0.1595793186575391</v>
       </c>
       <c r="F19">
-        <v>0.05833876832830608</v>
+        <v>0.3564918820361354</v>
       </c>
       <c r="G19">
-        <v>3.656925678440252</v>
+        <v>0.4476380156138196</v>
       </c>
       <c r="H19">
-        <v>0.0002552583517574369</v>
+        <v>0.6544144625401371</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1136,25 +1148,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>0.4864869968026983</v>
+        <v>0.5370789763159828</v>
       </c>
       <c r="F20">
-        <v>0.8819969192963366</v>
+        <v>0.4829793962686505</v>
       </c>
       <c r="G20">
-        <v>0.5515744853057645</v>
+        <v>1.112012190300822</v>
       </c>
       <c r="H20">
-        <v>0.5812399213543369</v>
+        <v>0.2661329090338529</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1162,25 +1174,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>0.5182011306954178</v>
+        <v>-0.06758369033782334</v>
       </c>
       <c r="F21">
-        <v>0.8453888372242169</v>
+        <v>1.474855909238546</v>
       </c>
       <c r="G21">
-        <v>0.6129737085200782</v>
+        <v>-0.0458239275541638</v>
       </c>
       <c r="H21">
-        <v>0.5398937241890975</v>
+        <v>0.963450587409669</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1188,25 +1200,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>-0.006322353992033503</v>
       </c>
       <c r="F22">
-        <v>0.1028476037993717</v>
+        <v>0.3636000453529937</v>
       </c>
       <c r="G22">
-        <v>0.4861561976402536</v>
+        <v>-0.01738821013038705</v>
       </c>
       <c r="H22">
-        <v>0.6268564248669586</v>
+        <v>0.986126914688038</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1214,25 +1226,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>0.2133405399520164</v>
       </c>
       <c r="F23">
-        <v>0.08508800637078079</v>
+        <v>0.05670352712654606</v>
       </c>
       <c r="G23">
-        <v>0.5876268834121182</v>
+        <v>3.762385706133216</v>
       </c>
       <c r="H23">
-        <v>0.5567827623508097</v>
+        <v>0.0001683002270489453</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1240,25 +1252,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.4864869968026983</v>
       </c>
       <c r="F24">
-        <v>0.01749016588921069</v>
+        <v>0.8490130411694811</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.5730029731133567</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.566642680924152</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1266,25 +1278,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.5106155978336923</v>
       </c>
       <c r="F25">
-        <v>0.1194582839438056</v>
+        <v>0.5333341276366211</v>
       </c>
       <c r="G25">
-        <v>0.41855615490929</v>
+        <v>0.9574028200584884</v>
       </c>
       <c r="H25">
-        <v>0.6755405386406399</v>
+        <v>0.338363975617207</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1292,25 +1304,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>0.6795375875280749</v>
+        <v>0.2743869019740707</v>
       </c>
       <c r="F26">
-        <v>0.130288169626346</v>
+        <v>6.130941232370816</v>
       </c>
       <c r="G26">
-        <v>5.215650733844123</v>
+        <v>0.04475444985923008</v>
       </c>
       <c r="H26">
-        <v>1.831730340740023E-07</v>
+        <v>0.964303032432041</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1318,25 +1330,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>0.6514836834456325</v>
+        <v>0.05</v>
       </c>
       <c r="F27">
-        <v>0.03123625177287018</v>
+        <v>0.09807265404280661</v>
       </c>
       <c r="G27">
-        <v>20.85665361394651</v>
+        <v>0.5098261129719834</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.6101732896237488</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1344,25 +1356,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>0.7755641432157472</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.03718545446199054</v>
+        <v>0.02084367062129815</v>
       </c>
       <c r="G28">
-        <v>20.85665361405333</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1370,25 +1382,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>0.5831847007530716</v>
+        <v>0.05</v>
       </c>
       <c r="F29">
-        <v>0.02796156619988335</v>
+        <v>0.04979938063016513</v>
       </c>
       <c r="G29">
-        <v>20.85665361386831</v>
+        <v>1.004028551485826</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.3153648518065584</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1396,25 +1408,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>0.8361533888228295</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.04456340228394021</v>
+        <v>0.01336721220338754</v>
       </c>
       <c r="G30">
-        <v>18.7632304974479</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1422,25 +1434,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.4309710661910426</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.02262012866841315</v>
+        <v>0.01680643215888797</v>
       </c>
       <c r="G31">
-        <v>19.05254706945146</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1448,25 +1460,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>0.4544067908574455</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>0.0246159570444519</v>
+        <v>0.1160621950294666</v>
       </c>
       <c r="G32">
-        <v>18.45984659537756</v>
+        <v>0.4308035014060771</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.6666112534356188</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1474,25 +1486,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>0.7068047298189988</v>
+        <v>0.6795375875280749</v>
       </c>
       <c r="F33">
-        <v>0.09066521584403348</v>
+        <v>0.1266970083773729</v>
       </c>
       <c r="G33">
-        <v>7.795765147982236</v>
+        <v>5.363485659414131</v>
       </c>
       <c r="H33">
-        <v>6.439293542825908E-15</v>
+        <v>8.163113540682332E-08</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1500,25 +1512,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E34">
-        <v>0.6297423701942139</v>
+        <v>0.6514836834456325</v>
       </c>
       <c r="F34">
-        <v>0.10648371625511</v>
+        <v>0.03123625177287017</v>
       </c>
       <c r="G34">
-        <v>5.913978139902489</v>
+        <v>20.85665361394651</v>
       </c>
       <c r="H34">
-        <v>3.339422294246219E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1526,25 +1538,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>0.6858079006473771</v>
+        <v>0.7291987052450793</v>
       </c>
       <c r="F35">
-        <v>0.0568987866421327</v>
+        <v>1.121262568812682</v>
       </c>
       <c r="G35">
-        <v>12.05311995401135</v>
+        <v>0.6503371516419977</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.5154744641545803</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1552,24 +1564,336 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0.7755641432157472</v>
+      </c>
+      <c r="F36">
+        <v>0.03718545446199055</v>
+      </c>
+      <c r="G36">
+        <v>20.85665361405333</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>0.5831847007530716</v>
+      </c>
+      <c r="F37">
+        <v>0.02796156619988334</v>
+      </c>
+      <c r="G37">
+        <v>20.85665361386831</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+      <c r="F38">
+        <v>1.120794699170595</v>
+      </c>
+      <c r="G38">
+        <v>0.04461120313734187</v>
+      </c>
+      <c r="H38">
+        <v>0.9644172127391804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <v>0.8361533888228295</v>
+      </c>
+      <c r="F39">
+        <v>0.0403984538093116</v>
+      </c>
+      <c r="G39">
+        <v>20.69765820120084</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>0.4309710661910426</v>
+      </c>
+      <c r="F40">
+        <v>0.02714631691681826</v>
+      </c>
+      <c r="G40">
+        <v>15.87585776353191</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>0.4544067908574455</v>
+      </c>
+      <c r="F41">
+        <v>0.02670022376573813</v>
+      </c>
+      <c r="G41">
+        <v>17.01883829990683</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>0.4389886378649761</v>
+      </c>
+      <c r="F42">
+        <v>0.05306908803760971</v>
+      </c>
+      <c r="G42">
+        <v>8.272021511762095</v>
+      </c>
+      <c r="H42">
+        <v>2.220446049250313E-16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>0.3911408376271637</v>
+      </c>
+      <c r="F43">
+        <v>0.01944127165076142</v>
+      </c>
+      <c r="G43">
+        <v>20.11909738382394</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>0.3404155106354861</v>
+      </c>
+      <c r="F44">
+        <v>0.01632302863861033</v>
+      </c>
+      <c r="G44">
+        <v>20.85492332038282</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>0.3333762716342979</v>
+      </c>
+      <c r="F45">
+        <v>0.01615864411756052</v>
+      </c>
+      <c r="G45">
+        <v>20.63145083140778</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>0.6297423701942139</v>
+      </c>
+      <c r="F46">
+        <v>0.101879329067413</v>
+      </c>
+      <c r="G46">
+        <v>6.18125753234334</v>
+      </c>
+      <c r="H46">
+        <v>6.359297533009567E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>0.6858079006473771</v>
+      </c>
+      <c r="F47">
+        <v>0.05528120508430485</v>
+      </c>
+      <c r="G47">
+        <v>12.40580590797725</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48">
         <v>0.8848229620821768</v>
       </c>
-      <c r="F36">
-        <v>0.05642853675020599</v>
-      </c>
-      <c r="G36">
-        <v>15.68041655914933</v>
-      </c>
-      <c r="H36">
+      <c r="F48">
+        <v>0.09948705177533787</v>
+      </c>
+      <c r="G48">
+        <v>8.893850468816728</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
     </row>

--- a/04-summary/SEM_Results.xlsx
+++ b/04-summary/SEM_Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
   <si>
     <t>Segment</t>
   </si>
@@ -83,58 +83,55 @@
     <t>VAR26_FAIRNESS_Should_Reduce_Bias</t>
   </si>
   <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>VAR28_PERSONAL_Enhances_Experience</t>
+  </si>
+  <si>
+    <t>VAR29_PERONAL_Improves_CS_quality</t>
+  </si>
+  <si>
+    <t>VAR21_EXPLAIN_clear_descisions</t>
+  </si>
+  <si>
+    <t>VAR06_ED_AI_Training_needed</t>
+  </si>
+  <si>
+    <t>VAR03_CG_AI_Training_Access</t>
+  </si>
+  <si>
+    <t>VAR01_CG_Training</t>
+  </si>
+  <si>
+    <t>VAR04_CG_AI_Training_helps_skills</t>
+  </si>
+  <si>
+    <t>VAR19_ACCOUNTABILITY_AI_Mechanisms</t>
+  </si>
+  <si>
+    <t>Yvar_USE_AI_Work</t>
+  </si>
+  <si>
+    <t>Ease_of_Use</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>ethics</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>~~</t>
+  </si>
+  <si>
+    <t>VAR15_SAFETY_AI_protect_Cyber_Threats</t>
+  </si>
+  <si>
     <t>VAR17_ETHICS_AI_proritize_Human_Wellbeing</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>VAR28_PERSONAL_Enhances_Experience</t>
-  </si>
-  <si>
-    <t>VAR29_PERONAL_Improves_CS_quality</t>
-  </si>
-  <si>
-    <t>VAR21_EXPLAIN_clear_descisions</t>
-  </si>
-  <si>
-    <t>VAR06_ED_AI_Training_needed</t>
-  </si>
-  <si>
-    <t>VAR03_CG_AI_Training_Access</t>
-  </si>
-  <si>
-    <t>VAR01_CG_Training</t>
-  </si>
-  <si>
-    <t>VAR04_CG_AI_Training_helps_skills</t>
-  </si>
-  <si>
-    <t>VAR18_GOV_Strict_AI_rules_Usage</t>
-  </si>
-  <si>
-    <t>VAR19_ACCOUNTABILITY_AI_Mechanisms</t>
-  </si>
-  <si>
-    <t>Yvar_USE_AI_Work</t>
-  </si>
-  <si>
-    <t>Ease_of_Use</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>ethics</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>~~</t>
-  </si>
-  <si>
-    <t>VAR15_SAFETY_AI_protect_Cyber_Threats</t>
   </si>
   <si>
     <t>-</t>
@@ -532,16 +529,16 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.338363975617207</v>
+        <v>0.3489949707282043</v>
       </c>
       <c r="D2">
-        <v>0.5106155978336923</v>
+        <v>0.5109273966484779</v>
       </c>
       <c r="E2">
-        <v>0.5333341276366211</v>
+        <v>0.5455475731494808</v>
       </c>
       <c r="F2">
-        <v>0.9574028200584884</v>
+        <v>0.9365404994800455</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -555,16 +552,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0001683002270489453</v>
+        <v>0.0001015632690983814</v>
       </c>
       <c r="D3">
-        <v>0.2133405399520164</v>
+        <v>0.2185167439983863</v>
       </c>
       <c r="E3">
-        <v>0.05670352712654606</v>
+        <v>0.05621983411431584</v>
       </c>
       <c r="F3">
-        <v>3.762385706133216</v>
+        <v>3.886826552176829</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -578,16 +575,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.964303032432041</v>
+        <v>0.9549904675807348</v>
       </c>
       <c r="D4">
-        <v>0.2743869019740707</v>
+        <v>0.02311624527025337</v>
       </c>
       <c r="E4">
-        <v>6.130941232370816</v>
+        <v>0.4095645152441848</v>
       </c>
       <c r="F4">
-        <v>0.04475444985923008</v>
+        <v>0.05644103531873332</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -601,16 +598,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.566642680924152</v>
+        <v>0.5696714686935529</v>
       </c>
       <c r="D5">
-        <v>0.4864869968026983</v>
+        <v>0.4905919755486872</v>
       </c>
       <c r="E5">
-        <v>0.8490130411694811</v>
+        <v>0.8629048727358259</v>
       </c>
       <c r="F5">
-        <v>0.5730029731133567</v>
+        <v>0.5685354099261309</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -624,16 +621,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5696714686935529</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.4905919755486872</v>
       </c>
       <c r="E6">
-        <v>0.3265465521742955</v>
+        <v>0.8629048727358259</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.5685354099261309</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -646,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -683,22 +680,22 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -709,16 +706,16 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.002695104188202803</v>
+        <v>0.002780130858807738</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -735,16 +732,16 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.002078516980209031</v>
+        <v>0.002098017843354942</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -761,16 +758,16 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.003177544186877961</v>
+        <v>0.003252090400485606</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -787,22 +784,22 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.3386659946608077</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -810,19 +807,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3265465521742955</v>
+        <v>0.0361645964687444</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -836,19 +833,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03511632807600208</v>
+        <v>0.03038702784962785</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -862,19 +859,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02415479218439201</v>
+        <v>0.02981917813688323</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -888,19 +885,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03280499847424097</v>
+        <v>0.01349907740264787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01316787571097853</v>
+        <v>0.03296607844051743</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -940,19 +937,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.03224046481830394</v>
+        <v>0.03807006719479045</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -969,22 +966,22 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.03706190311508159</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -995,22 +992,22 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
+        <v>0.6830232574005468</v>
+      </c>
+      <c r="F14">
+        <v>1.286319736659443</v>
+      </c>
+      <c r="G14">
+        <v>0.5309902646552085</v>
+      </c>
+      <c r="H14">
+        <v>0.5954255254612053</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1021,22 +1018,22 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>0.6743473225749597</v>
+        <v>0.09307394748152845</v>
       </c>
       <c r="F15">
-        <v>1.246817417212664</v>
+        <v>0.2987147539962477</v>
       </c>
       <c r="G15">
-        <v>0.5408549104823728</v>
+        <v>0.3115813539038852</v>
       </c>
       <c r="H15">
-        <v>0.5886075915239781</v>
+        <v>0.755358706703519</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1047,22 +1044,22 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>0.09475466377986455</v>
-      </c>
-      <c r="F16">
-        <v>0.2918758563297366</v>
-      </c>
-      <c r="G16">
-        <v>0.3246402938943129</v>
-      </c>
-      <c r="H16">
-        <v>0.7454533274493298</v>
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1073,22 +1070,22 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
+        <v>0.5817879958834143</v>
+      </c>
+      <c r="F17">
+        <v>0.5434452877556013</v>
+      </c>
+      <c r="G17">
+        <v>1.07055486355415</v>
+      </c>
+      <c r="H17">
+        <v>0.2843696277391441</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1099,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>0.5832777812053725</v>
+        <v>0.1629400570884869</v>
       </c>
       <c r="F18">
-        <v>0.5260145933255318</v>
+        <v>0.366647838962557</v>
       </c>
       <c r="G18">
-        <v>1.108862355921927</v>
+        <v>0.4444047932999881</v>
       </c>
       <c r="H18">
-        <v>0.2674895654407505</v>
+        <v>0.6567499485532906</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1125,22 +1122,22 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>0.1595793186575391</v>
+        <v>0.538976484980291</v>
       </c>
       <c r="F19">
-        <v>0.3564918820361354</v>
+        <v>0.5021134578496129</v>
       </c>
       <c r="G19">
-        <v>0.4476380156138196</v>
+        <v>1.073415732148421</v>
       </c>
       <c r="H19">
-        <v>0.6544144625401371</v>
+        <v>0.2830846289939701</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1151,22 +1148,22 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>0.5370789763159828</v>
-      </c>
-      <c r="F20">
-        <v>0.4829793962686505</v>
-      </c>
-      <c r="G20">
-        <v>1.112012190300822</v>
-      </c>
-      <c r="H20">
-        <v>0.2661329090338529</v>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1177,22 +1174,22 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>-0.06758369033782334</v>
+        <v>0.2185167439983863</v>
       </c>
       <c r="F21">
-        <v>1.474855909238546</v>
+        <v>0.05621983411431584</v>
       </c>
       <c r="G21">
-        <v>-0.0458239275541638</v>
+        <v>3.886826552176829</v>
       </c>
       <c r="H21">
-        <v>0.963450587409669</v>
+        <v>0.0001015632690983814</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1200,25 +1197,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
       <c r="E22">
-        <v>-0.006322353992033503</v>
+        <v>0.4905919755486872</v>
       </c>
       <c r="F22">
-        <v>0.3636000453529937</v>
+        <v>0.8629048727358259</v>
       </c>
       <c r="G22">
-        <v>-0.01738821013038705</v>
+        <v>0.5685354099261309</v>
       </c>
       <c r="H22">
-        <v>0.986126914688038</v>
+        <v>0.5696714686935529</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1226,25 +1223,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>0.2133405399520164</v>
+        <v>0.5109273966484779</v>
       </c>
       <c r="F23">
-        <v>0.05670352712654606</v>
+        <v>0.5455475731494808</v>
       </c>
       <c r="G23">
-        <v>3.762385706133216</v>
+        <v>0.9365404994800455</v>
       </c>
       <c r="H23">
-        <v>0.0001683002270489453</v>
+        <v>0.3489949707282043</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1252,25 +1249,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24">
-        <v>0.4864869968026983</v>
+        <v>0.02311624527025337</v>
       </c>
       <c r="F24">
-        <v>0.8490130411694811</v>
+        <v>0.4095645152441848</v>
       </c>
       <c r="G24">
-        <v>0.5730029731133567</v>
+        <v>0.05644103531873332</v>
       </c>
       <c r="H24">
-        <v>0.566642680924152</v>
+        <v>0.9549904675807348</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1278,25 +1275,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>0.5106155978336923</v>
+        <v>0.05</v>
       </c>
       <c r="F25">
-        <v>0.5333341276366211</v>
+        <v>0.09995300337560525</v>
       </c>
       <c r="G25">
-        <v>0.9574028200584884</v>
+        <v>0.500235093603029</v>
       </c>
       <c r="H25">
-        <v>0.338363975617207</v>
+        <v>0.6169095505699258</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1304,25 +1301,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
       <c r="E26">
-        <v>0.2743869019740707</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>6.130941232370816</v>
+        <v>0.01379665574463536</v>
       </c>
       <c r="G26">
-        <v>0.04475444985923008</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.964303032432041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1330,25 +1327,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.09807265404280661</v>
+        <v>0.01530511408621056</v>
       </c>
       <c r="G27">
-        <v>0.5098261129719834</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.6101732896237488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1356,25 +1353,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F28">
-        <v>0.02084367062129815</v>
+        <v>0.05161341846804085</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.9687403292225525</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.3326747653017368</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1382,25 +1379,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>0.04979938063016513</v>
+        <v>0.117850264187826</v>
       </c>
       <c r="G29">
-        <v>1.004028551485826</v>
+        <v>0.424267186366993</v>
       </c>
       <c r="H29">
-        <v>0.3153648518065584</v>
+        <v>0.6713709671121932</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1408,25 +1405,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.6891092894038323</v>
       </c>
       <c r="F30">
-        <v>0.01336721220338754</v>
+        <v>0.1287283670153942</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5.353204622847975</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>8.641003823584015E-08</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1434,25 +1431,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.6504117666650732</v>
       </c>
       <c r="F31">
-        <v>0.01680643215888797</v>
+        <v>0.03190824187318601</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>20.38381711000068</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1460,25 +1457,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.7856481903843403</v>
       </c>
       <c r="F32">
-        <v>0.1160621950294666</v>
+        <v>0.03854274133838576</v>
       </c>
       <c r="G32">
-        <v>0.4308035014060771</v>
+        <v>20.38381711011065</v>
       </c>
       <c r="H32">
-        <v>0.6666112534356188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1486,25 +1483,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>0.6795375875280749</v>
+        <v>0.5853168655629262</v>
       </c>
       <c r="F33">
-        <v>0.1266970083773729</v>
+        <v>0.02871478204430194</v>
       </c>
       <c r="G33">
-        <v>5.363485659414131</v>
+        <v>20.38381710992964</v>
       </c>
       <c r="H33">
-        <v>8.163113540682332E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1512,25 +1509,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E34">
-        <v>0.6514836834456325</v>
+        <v>0.05</v>
       </c>
       <c r="F34">
-        <v>0.03123625177287017</v>
+        <v>0.09510311917089376</v>
       </c>
       <c r="G34">
-        <v>20.85665361394651</v>
+        <v>0.5257451115733407</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.5990653156582246</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1538,25 +1535,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>0.7291987052450793</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.121262568812682</v>
+        <v>0.01240617166325592</v>
       </c>
       <c r="G35">
-        <v>0.6503371516419977</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.5154744641545803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1564,22 +1561,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>0.7755641432157472</v>
+        <v>0.8284916176847518</v>
       </c>
       <c r="F36">
-        <v>0.03718545446199055</v>
+        <v>0.04097868804317129</v>
       </c>
       <c r="G36">
-        <v>20.85665361405333</v>
+        <v>20.21762182312214</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1590,22 +1587,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0.5831847007530716</v>
+        <v>0.4364683206841973</v>
       </c>
       <c r="F37">
-        <v>0.02796156619988334</v>
+        <v>0.02808699615810256</v>
       </c>
       <c r="G37">
-        <v>20.85665361386831</v>
+        <v>15.5398718400417</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1616,25 +1613,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0.4619389163303466</v>
       </c>
       <c r="F38">
-        <v>1.120794699170595</v>
+        <v>0.0278069738985156</v>
       </c>
       <c r="G38">
-        <v>0.04461120313734187</v>
+        <v>16.61234041502062</v>
       </c>
       <c r="H38">
-        <v>0.9644172127391804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1642,25 +1639,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.8361533888228295</v>
+        <v>0.4474535920794839</v>
       </c>
       <c r="F39">
-        <v>0.0403984538093116</v>
+        <v>0.05506452819421638</v>
       </c>
       <c r="G39">
-        <v>20.69765820120084</v>
+        <v>8.125986124736388</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4.440892098500626E-16</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1668,25 +1665,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0.4309710661910426</v>
+        <v>0.3467354802834213</v>
       </c>
       <c r="F40">
-        <v>0.02714631691681826</v>
+        <v>0.09524683816847992</v>
       </c>
       <c r="G40">
-        <v>15.87585776353191</v>
+        <v>3.640388352487339</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.0002722271323831738</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1694,22 +1691,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>0.4544067908574455</v>
+        <v>0.337240301725698</v>
       </c>
       <c r="F41">
-        <v>0.02670022376573813</v>
+        <v>0.01671682433004011</v>
       </c>
       <c r="G41">
-        <v>17.01883829990683</v>
+        <v>20.17370614462365</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1720,25 +1717,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>0.4389886378649761</v>
+        <v>0.6367735797416886</v>
       </c>
       <c r="F42">
-        <v>0.05306908803760971</v>
+        <v>0.103957766256833</v>
       </c>
       <c r="G42">
-        <v>8.272021511762095</v>
+        <v>6.125310331912877</v>
       </c>
       <c r="H42">
-        <v>2.220446049250313E-16</v>
+        <v>9.050702409751921E-10</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1746,22 +1743,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E43">
-        <v>0.3911408376271637</v>
+        <v>0.6929250276224695</v>
       </c>
       <c r="F43">
-        <v>0.01944127165076142</v>
+        <v>0.05755434229002489</v>
       </c>
       <c r="G43">
-        <v>20.11909738382394</v>
+        <v>12.03949172277355</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1772,128 +1769,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44">
-        <v>0.3404155106354861</v>
+        <v>0.8966970332816366</v>
       </c>
       <c r="F44">
-        <v>0.01632302863861033</v>
+        <v>0.05438878380526545</v>
       </c>
       <c r="G44">
-        <v>20.85492332038282</v>
+        <v>16.48680059616151</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45">
-        <v>0.3333762716342979</v>
-      </c>
-      <c r="F45">
-        <v>0.01615864411756052</v>
-      </c>
-      <c r="G45">
-        <v>20.63145083140778</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46">
-        <v>0.6297423701942139</v>
-      </c>
-      <c r="F46">
-        <v>0.101879329067413</v>
-      </c>
-      <c r="G46">
-        <v>6.18125753234334</v>
-      </c>
-      <c r="H46">
-        <v>6.359297533009567E-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47">
-        <v>0.6858079006473771</v>
-      </c>
-      <c r="F47">
-        <v>0.05528120508430485</v>
-      </c>
-      <c r="G47">
-        <v>12.40580590797725</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48">
-        <v>0.8848229620821768</v>
-      </c>
-      <c r="F48">
-        <v>0.09948705177533787</v>
-      </c>
-      <c r="G48">
-        <v>8.893850468816728</v>
-      </c>
-      <c r="H48">
         <v>0</v>
       </c>
     </row>

--- a/04-summary/SEM_Results.xlsx
+++ b/04-summary/SEM_Results.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust </t>
+          <t>Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">

--- a/04-summary/SEM_Results.xlsx
+++ b/04-summary/SEM_Results.xlsx
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.3314374353093694</v>
+        <v>0.3314374353093537</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.5106155978336923</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.5257451697767365</v>
+        <v>0.5257451697767191</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.9712226135136147</v>
+        <v>0.9712226135136467</v>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
@@ -527,10 +527,10 @@
         <v>0.2133405399520164</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.05659705057972763</v>
+        <v>0.05659705057972778</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.769463916634957</v>
+        <v>3.769463916634948</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.9320576067243127</v>
+        <v>0.9320576067243129</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.03115533812904984</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.3654313671196678</v>
+        <v>0.3654313671196698</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.08525633246683539</v>
+        <v>0.08525633246683495</v>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.5629539973220532</v>
+        <v>0.5629539973220175</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.4864869968026983</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.8410045593627805</v>
+        <v>0.8410045593627032</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.5784594047512959</v>
+        <v>0.5784594047513489</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.5629539973220532</v>
+        <v>0.5629539973220175</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.4864869968026983</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.8410045593627805</v>
+        <v>0.8410045593627032</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.5784594047512959</v>
+        <v>0.5784594047513489</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>

--- a/04-summary/SEM_Results.xlsx
+++ b/04-summary/SEM_Results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Entire Dataset</t>
+          <t>Boomer</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.3314374353093537</v>
+        <v>0.7501789360861337</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.5106155978336923</v>
+        <v>0.4688311688311694</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.5257451697767191</v>
+        <v>1.47244383469449</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.9712226135136467</v>
+        <v>0.318403430938421</v>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
@@ -510,67 +510,67 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Entire Dataset</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Boomer</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Hypothesis 2: Explainability and Fairness Influence User Trust and AI Adoption</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>0.0001635985572416843</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.2133405399520164</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.05659705057972778</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>3.769463916634948</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="n">
+        <v>0.9977473273074207</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.005131964809384184</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1.817711939066625</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.002823310283155518</v>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Boomer</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Use</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.02896765457648987</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.2328244274809164</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.1066081825523834</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2.183926429515211</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Accepted</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Entire Dataset</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Use</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.9320576067243129</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.03115533812904984</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.3654313671196698</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.08525633246683495</v>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Rejected</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Entire Dataset</t>
+          <t>Boomer</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.5629539973220175</v>
+        <v>0.9256871504429818</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.4864869968026983</v>
+        <v>0.3574380165289259</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.8410045593627032</v>
+        <v>3.832194514736539</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.5784594047513489</v>
+        <v>0.0932724096217768</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Entire Dataset</t>
+          <t>Boomer</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -608,18 +608,453 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.5629539973220175</v>
+        <v>0.9256871504429818</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.4864869968026983</v>
+        <v>0.3574380165289259</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.8410045593627032</v>
+        <v>3.832194514736539</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.5784594047513489</v>
+        <v>0.0932724096217768</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 1: AI Training and Career Growth Opportunities Influence Ease of Use and Trust</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.6506417947704319</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.4407595856805374</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.9732568492551531</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.452870777141105</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 2: Explainability and Fairness Influence User Trust and AI Adoption</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.3177437592109533</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.1715856481481485</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.1717393300023417</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.9991051446678511</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Use</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.8848498441454222</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-0.07234235989349964</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.4995191895978917</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-0.1448239855441585</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 4: AI-Driven Personalization Enhances User Experience</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.7435542007216778</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.5681429913726832</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1.736642063363566</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.3271503111423918</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Gen Z</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.7435542007216778</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.5681429913726832</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1.736642063363566</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.3271503111423918</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gen X</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 1: AI Training and Career Growth Opportunities Influence Ease of Use and Trust</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.4717879888736383</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.5259125423108605</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.7308676106334814</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.7195729221798526</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Gen X</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Hypothesis 2: Explainability and Fairness Influence User Trust and AI Adoption</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.0003593091894349421</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.250616043821512</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.07023407788072999</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3.568296920528158</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gen X</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Use</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.8588166737780152</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.06457628422024027</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.3630314405130453</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.1778806930022412</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gen X</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 4: AI-Driven Personalization Enhances User Experience</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.7145036771414077</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.4936059771922919</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1.349334973764495</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.365814261683902</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gen X</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.7145036771414077</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.4936059771922919</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1.349334973764495</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.365814261683902</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Millennial</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 1: AI Training and Career Growth Opportunities Influence Ease of Use and Trust</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.4710790703335253</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.5450819672131132</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.7562973231632266</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.7207244433083245</v>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Millennial</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Hypothesis 2: Explainability and Fairness Influence User Trust and AI Adoption</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0.02068410662556008</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.2163623515754141</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0.09351351511637324</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>2.313701407800226</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Millennial</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 3: Ethical Development and Social Responsibility Influence User Use</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0.847361346002119</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.0696015475966579</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.3615923295820249</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.1924862390662985</v>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Millennial</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 4: AI-Driven Personalization Enhances User Experience</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.759411409162889</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.4418390735267493</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1.442721909996432</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0.3062538043298558</v>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Millennial</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Hypothesis 5: AI Training Accessibility and Accountability Influence User Trust</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.759411409162889</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.4418390735267493</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1.442721909996432</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0.3062538043298558</v>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>Rejected</t>
         </is>
